--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value255.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value255.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9836213225789817</v>
+        <v>1.281367421150208</v>
       </c>
       <c r="B1">
-        <v>1.045010350431746</v>
+        <v>2.217790365219116</v>
       </c>
       <c r="C1">
-        <v>1.187872716998913</v>
+        <v>2.750782251358032</v>
       </c>
       <c r="D1">
-        <v>1.867260041130176</v>
+        <v>3.177966356277466</v>
       </c>
       <c r="E1">
-        <v>3.60238448202313</v>
+        <v>2.338335037231445</v>
       </c>
     </row>
   </sheetData>
